--- a/wiki.xlsx
+++ b/wiki.xlsx
@@ -154,13 +154,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>368.189178</v>
+        <v>180</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>10000</v>
@@ -736,6 +736,303 @@
       <c r="G25" s="2" t="n">
         <v>0.993158</v>
       </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>159.398342</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>0.974334</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>0.993158</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>99.1909</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>0.99005</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>0.99782</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>72.163158</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>0.998002</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>0.999415</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>78.700416</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>0.996008</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>0.999134</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>311.198663</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>0.999967</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>188.376305</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>0.999948</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>137.983669</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>0.999968</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>142.336835</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>0.999966</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>647.155218</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>40000</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>0.999981</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>379.227428</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>40000</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>0.999983</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>279.86492</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>40000</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>0.999998</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>240.941363</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>40000</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>0.999978</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/wiki.xlsx
+++ b/wiki.xlsx
@@ -156,8 +156,8 @@
   </sheetPr>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -374,7 +374,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>53.7779</v>
+        <v>48.7779</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>8000</v>
@@ -461,196 +461,196 @@
         <v>0.982443</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>64.482049</v>
+        <v>67.565361</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0.996008</v>
+        <v>0.992032</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>0.999134</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.997737</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>67.565361</v>
+        <v>77.920886</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>0.992032</v>
+        <v>0.968504</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>0.997737</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.992325</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>76.93109</v>
+        <v>79.453068</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>0.998002</v>
+        <v>0.780944</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>0.999415</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.936372</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>77.920886</v>
+        <v>90.503709</v>
       </c>
       <c r="C17" s="2" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>0.986097</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>0.996577</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>97.058281</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>0.904762</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>0.975089</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>105.956682</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>0.930502</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>0.9827</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>130.17893</v>
+      </c>
+      <c r="C20" s="2" t="n">
         <v>6000</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D20" s="2" t="n">
         <v>6000</v>
       </c>
-      <c r="E17" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>0.968504</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>0.992325</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>79.453068</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>0.780944</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>0.936372</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>90.503709</v>
-      </c>
-      <c r="C19" s="2" t="n">
+      <c r="E20" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>0.960784</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>0.988701</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>152.915569</v>
+      </c>
+      <c r="C21" s="2" t="n">
         <v>8000</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D21" s="2" t="n">
         <v>8000</v>
       </c>
-      <c r="E19" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>0.986097</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>0.996577</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>97.058281</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>0.904762</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>0.975089</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>105.956682</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>4000</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>4000</v>
-      </c>
       <c r="E21" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0.930502</v>
+        <v>0.966568</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>0.9827</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.990502</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>107.257186</v>
+        <v>159.398342</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>10000</v>
@@ -662,64 +662,64 @@
         <v>1000</v>
       </c>
       <c r="F22" s="2" t="n">
+        <v>0.974334</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>0.993158</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>99.1909</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="2" t="n">
         <v>0.99005</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G23" s="2" t="n">
         <v>0.99782</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>130.17893</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>0.960784</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>0.988701</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>152.915569</v>
+        <v>72.163158</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>0.966568</v>
+        <v>0.998002</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>0.990502</v>
+        <v>0.999415</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>180</v>
+        <v>65.700416</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>10000</v>
@@ -731,10 +731,10 @@
         <v>1000</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>0.974334</v>
+        <v>0.996008</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>0.993158</v>
+        <v>0.999134</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -742,22 +742,22 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>159.398342</v>
+        <v>311.198663</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>0.974334</v>
+        <v>1</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>0.993158</v>
+        <v>0.999967</v>
       </c>
       <c r="H26" s="1"/>
     </row>
@@ -766,22 +766,22 @@
         <v>2</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>99.1909</v>
+        <v>188.376305</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>0.99005</v>
+        <v>1</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>0.99782</v>
+        <v>0.999948</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -789,45 +789,45 @@
         <v>3</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>72.163158</v>
+        <v>137.983669</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>0.998002</v>
+        <v>1</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>0.999415</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.999968</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>78.700416</v>
+        <v>129.336835</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>0.996008</v>
+        <v>1</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>0.999134</v>
+        <v>0.999966</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -835,13 +835,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>311.198663</v>
+        <v>647.155218</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>1000</v>
@@ -850,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>0.999967</v>
+        <v>0.999981</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -858,13 +858,13 @@
         <v>2</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>188.376305</v>
+        <v>379.227428</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>1000</v>
@@ -873,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>0.999948</v>
+        <v>0.999983</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -881,13 +881,13 @@
         <v>3</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>137.983669</v>
+        <v>279.86492</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>1000</v>
@@ -896,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>0.999968</v>
+        <v>0.999998</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -904,13 +904,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>142.336835</v>
+        <v>240.941363</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>1000</v>
@@ -919,98 +919,6 @@
         <v>1</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>0.999966</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>647.155218</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>40000</v>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>40000</v>
-      </c>
-      <c r="E34" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="2" t="n">
-        <v>0.999981</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>379.227428</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>40000</v>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>40000</v>
-      </c>
-      <c r="E35" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F35" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>0.999983</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>279.86492</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>40000</v>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>40000</v>
-      </c>
-      <c r="E36" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>0.999998</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>240.941363</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>40000</v>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>40000</v>
-      </c>
-      <c r="E37" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F37" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2" t="n">
         <v>0.999978</v>
       </c>
     </row>
